--- a/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>ARVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,65 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +751,17 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +789,17 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +827,17 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +849,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +919,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -877,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>1125700</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -897,8 +957,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +995,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,37 +1014,49 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5700</v>
+        <v>50100</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>45400</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>1160500</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>51500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,28 +1064,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-45400</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-1160500</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-51500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-17600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1106,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,57 +1118,75 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>10100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>85500</v>
       </c>
       <c r="G20" s="3">
-        <v>900</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-1100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1070500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-15400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,66 +1214,93 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5600</v>
+        <v>-27900</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-35300</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-1075000</v>
       </c>
       <c r="G23" s="3">
-        <v>700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-52600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-18000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>-15800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-900</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1328,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5600</v>
+        <v>-28800</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-42200</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>-1075000</v>
       </c>
       <c r="G26" s="3">
-        <v>500</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-36800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-17100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5600</v>
+        <v>-28800</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-42200</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>-1075000</v>
       </c>
       <c r="G27" s="3">
-        <v>500</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-36800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-17100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1442,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1480,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1518,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1556,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,57 +1574,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-10100</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>-85500</v>
       </c>
       <c r="G32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5600</v>
+        <v>-28800</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-42200</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>-1075000</v>
       </c>
       <c r="G33" s="3">
-        <v>500</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-36800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-17100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1670,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5600</v>
+        <v>-28800</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-42200</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>-1075000</v>
       </c>
       <c r="G35" s="3">
-        <v>500</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-36800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-17100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1773,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,22 +1789,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>415300</v>
       </c>
       <c r="E41" s="3">
-        <v>1000</v>
+        <v>485500</v>
       </c>
       <c r="F41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1200</v>
+        <v>562700</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1821,17 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,80 +1859,107 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>27900</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>47800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>13300</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>50600</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>35600</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
+        <v>26500</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1676,22 +1973,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>513900</v>
       </c>
       <c r="E46" s="3">
-        <v>1100</v>
+        <v>597700</v>
       </c>
       <c r="F46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1400</v>
+        <v>650300</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1705,22 +2011,31 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>259900</v>
+        <v>62200</v>
       </c>
       <c r="E47" s="3">
-        <v>259900</v>
+        <v>32400</v>
       </c>
       <c r="F47" s="3">
-        <v>259800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>259700</v>
+        <v>35200</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,66 +2049,93 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>207600</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>171300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>149800</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>348100</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>279600</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>232600</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2163,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,37 +2201,55 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,22 +2277,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260300</v>
+        <v>1133200</v>
       </c>
       <c r="E54" s="3">
-        <v>261000</v>
+        <v>1082400</v>
       </c>
       <c r="F54" s="3">
-        <v>261100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>261100</v>
+        <v>1069200</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2315,17 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2337,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,22 +2353,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>48600</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>46700</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
+        <v>52500</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1992,51 +2385,69 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>3900</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>28000</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
+        <v>400</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2461,31 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5300</v>
+        <v>56200</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>80500</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
+        <v>56800</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,19 +2499,28 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>156100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>129600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>120200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2108,22 +2537,31 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9100</v>
+        <v>21800</v>
       </c>
       <c r="E62" s="3">
-        <v>9100</v>
+        <v>26400</v>
       </c>
       <c r="F62" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9100</v>
+        <v>126400</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2575,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2613,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2651,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2689,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14300</v>
+        <v>234000</v>
       </c>
       <c r="E66" s="3">
-        <v>9400</v>
+        <v>236500</v>
       </c>
       <c r="F66" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9300</v>
+        <v>303500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2727,17 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2749,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2781,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2819,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2857,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,22 +2895,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5300</v>
+        <v>-4510600</v>
       </c>
       <c r="E72" s="3">
-        <v>300</v>
+        <v>-4497200</v>
       </c>
       <c r="F72" s="3">
-        <v>500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>500</v>
+        <v>-4514400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2933,17 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2971,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +3009,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +3047,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>246000</v>
+        <v>899200</v>
       </c>
       <c r="E76" s="3">
-        <v>251600</v>
+        <v>845900</v>
       </c>
       <c r="F76" s="3">
-        <v>251700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>251800</v>
+        <v>765800</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +3085,17 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +3123,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5600</v>
+        <v>-28800</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-42200</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>-1075000</v>
       </c>
       <c r="G81" s="3">
-        <v>500</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-36800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-17100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3226,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3296,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3334,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3372,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3410,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3448,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-53800</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-59900</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-47300</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-40000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-31900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3508,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-11500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-14700</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-5400</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3578,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3616,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>-88600</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-71000</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-45200</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-51000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-20900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3676,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3708,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3746,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3784,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,91 +3822,127 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>62700</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>59400</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>580400</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>161100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>8700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-600</v>
+        <v>-70200</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>-77200</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>489600</v>
       </c>
       <c r="G102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>71900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-44300</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>ARVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +864,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9400</v>
+        <v>27500</v>
       </c>
       <c r="E12" s="3">
-        <v>6600</v>
+        <v>8900</v>
       </c>
       <c r="F12" s="3">
-        <v>7700</v>
+        <v>6300</v>
       </c>
       <c r="G12" s="3">
-        <v>10500</v>
+        <v>7400</v>
       </c>
       <c r="H12" s="3">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="3">
-        <v>4500</v>
+        <v>1400</v>
       </c>
       <c r="J12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,32 +944,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
-        <v>1125700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -966,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50100</v>
+        <v>68700</v>
       </c>
       <c r="E17" s="3">
-        <v>45400</v>
+        <v>47700</v>
       </c>
       <c r="F17" s="3">
-        <v>1160500</v>
+        <v>43200</v>
       </c>
       <c r="G17" s="3">
-        <v>51500</v>
+        <v>1104200</v>
       </c>
       <c r="H17" s="3">
-        <v>22500</v>
+        <v>49000</v>
       </c>
       <c r="I17" s="3">
-        <v>15600</v>
+        <v>21400</v>
       </c>
       <c r="J17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K17" s="3">
         <v>17600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,26 +1093,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-45400</v>
+        <v>-47700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1160500</v>
+        <v>-43200</v>
       </c>
       <c r="G18" s="3">
-        <v>-51500</v>
+        <v>-1104200</v>
       </c>
       <c r="H18" s="3">
-        <v>-22500</v>
+        <v>-49000</v>
       </c>
       <c r="I18" s="3">
-        <v>-15600</v>
+        <v>-21400</v>
       </c>
       <c r="J18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-17600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,26 +1151,26 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>10100</v>
+        <v>21200</v>
       </c>
       <c r="F20" s="3">
-        <v>85500</v>
+        <v>9600</v>
       </c>
       <c r="G20" s="3">
+        <v>81300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,26 +1192,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-29900</v>
+        <v>-21500</v>
       </c>
       <c r="F21" s="3">
-        <v>-1070500</v>
+        <v>-28500</v>
       </c>
       <c r="G21" s="3">
-        <v>-49100</v>
+        <v>-1018500</v>
       </c>
       <c r="H21" s="3">
-        <v>-21100</v>
+        <v>-46700</v>
       </c>
       <c r="I21" s="3">
-        <v>-14100</v>
+        <v>-20000</v>
       </c>
       <c r="J21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,35 +1262,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27900</v>
+        <v>-55900</v>
       </c>
       <c r="E23" s="3">
-        <v>-35300</v>
+        <v>-26500</v>
       </c>
       <c r="F23" s="3">
-        <v>-1075000</v>
+        <v>-33600</v>
       </c>
       <c r="G23" s="3">
-        <v>-52600</v>
+        <v>-1022800</v>
       </c>
       <c r="H23" s="3">
-        <v>-23800</v>
+        <v>-50100</v>
       </c>
       <c r="I23" s="3">
-        <v>-15700</v>
+        <v>-22700</v>
       </c>
       <c r="J23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,35 +1303,38 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
-        <v>6900</v>
-      </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>6600</v>
       </c>
       <c r="G24" s="3">
-        <v>-15800</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
-        <v>-3300</v>
-      </c>
       <c r="J24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-28800</v>
+        <v>-55100</v>
       </c>
       <c r="E26" s="3">
-        <v>-42200</v>
+        <v>-27400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1075000</v>
+        <v>-40100</v>
       </c>
       <c r="G26" s="3">
-        <v>-36800</v>
+        <v>-1022800</v>
       </c>
       <c r="H26" s="3">
-        <v>-24400</v>
+        <v>-35000</v>
       </c>
       <c r="I26" s="3">
-        <v>-12500</v>
+        <v>-23200</v>
       </c>
       <c r="J26" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-17100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1426,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-28800</v>
+        <v>-55100</v>
       </c>
       <c r="E27" s="3">
-        <v>-42200</v>
+        <v>-27400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1075000</v>
+        <v>-40100</v>
       </c>
       <c r="G27" s="3">
-        <v>-36800</v>
+        <v>-1022800</v>
       </c>
       <c r="H27" s="3">
-        <v>-24400</v>
+        <v>-35000</v>
       </c>
       <c r="I27" s="3">
-        <v>-12500</v>
+        <v>-23200</v>
       </c>
       <c r="J27" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,26 +1643,26 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-10100</v>
+        <v>-21200</v>
       </c>
       <c r="F32" s="3">
-        <v>-85500</v>
+        <v>-9600</v>
       </c>
       <c r="G32" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,35 +1672,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-28800</v>
+        <v>-55100</v>
       </c>
       <c r="E33" s="3">
-        <v>-42200</v>
+        <v>-27400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1075000</v>
+        <v>-40100</v>
       </c>
       <c r="G33" s="3">
-        <v>-36800</v>
+        <v>-1022800</v>
       </c>
       <c r="H33" s="3">
-        <v>-24400</v>
+        <v>-35000</v>
       </c>
       <c r="I33" s="3">
-        <v>-12500</v>
+        <v>-23200</v>
       </c>
       <c r="J33" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-17100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1754,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-28800</v>
+        <v>-55100</v>
       </c>
       <c r="E35" s="3">
-        <v>-42200</v>
+        <v>-27400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1075000</v>
+        <v>-40100</v>
       </c>
       <c r="G35" s="3">
-        <v>-36800</v>
+        <v>-1022800</v>
       </c>
       <c r="H35" s="3">
-        <v>-24400</v>
+        <v>-35000</v>
       </c>
       <c r="I35" s="3">
-        <v>-12500</v>
+        <v>-23200</v>
       </c>
       <c r="J35" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-17100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,22 +1877,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>415300</v>
+        <v>826000</v>
       </c>
       <c r="E41" s="3">
-        <v>485500</v>
+        <v>395100</v>
       </c>
       <c r="F41" s="3">
-        <v>562700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>461900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>535400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1830,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,22 +1957,25 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27900</v>
+        <v>41500</v>
       </c>
       <c r="E43" s="3">
-        <v>62000</v>
+        <v>26600</v>
       </c>
       <c r="F43" s="3">
-        <v>47800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>59000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1894,8 +1986,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1906,22 +1998,25 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20000</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
-        <v>14700</v>
+        <v>19100</v>
       </c>
       <c r="F44" s="3">
-        <v>13300</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="G44" s="3">
+        <v>12600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1932,8 +2027,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1944,22 +2039,25 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50600</v>
+        <v>44100</v>
       </c>
       <c r="E45" s="3">
-        <v>35600</v>
+        <v>48100</v>
       </c>
       <c r="F45" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>33800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1982,22 +2080,25 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>513900</v>
+        <v>932800</v>
       </c>
       <c r="E46" s="3">
-        <v>597700</v>
+        <v>488900</v>
       </c>
       <c r="F46" s="3">
-        <v>650300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>568700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>618700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2121,25 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62200</v>
+        <v>37500</v>
       </c>
       <c r="E47" s="3">
-        <v>32400</v>
+        <v>59200</v>
       </c>
       <c r="F47" s="3">
-        <v>35200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>30800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>33500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2058,22 +2162,25 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>207600</v>
+        <v>249100</v>
       </c>
       <c r="E48" s="3">
-        <v>171300</v>
+        <v>197500</v>
       </c>
       <c r="F48" s="3">
-        <v>149800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>163000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>142500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2084,8 +2191,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2096,22 +2203,25 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>348100</v>
+        <v>380300</v>
       </c>
       <c r="E49" s="3">
-        <v>279600</v>
+        <v>331100</v>
       </c>
       <c r="F49" s="3">
-        <v>232600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>266000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>221300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2122,8 +2232,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2134,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,13 +2326,16 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>23400</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
@@ -2224,8 +2343,8 @@
       <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>1200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2236,8 +2355,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2248,8 +2367,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,22 +2408,25 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1133200</v>
+        <v>1623200</v>
       </c>
       <c r="E54" s="3">
-        <v>1082400</v>
+        <v>1078100</v>
       </c>
       <c r="F54" s="3">
-        <v>1069200</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1029800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1017300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2324,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,22 +2485,23 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>48600</v>
+        <v>61400</v>
       </c>
       <c r="E57" s="3">
-        <v>46700</v>
+        <v>46300</v>
       </c>
       <c r="F57" s="3">
-        <v>52500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>50000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2394,22 +2524,25 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="F58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>5600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2420,8 +2553,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2432,23 +2565,26 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
-        <v>28000</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="3">
+        <v>26600</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,22 +2606,25 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56200</v>
+        <v>74800</v>
       </c>
       <c r="E60" s="3">
-        <v>80500</v>
+        <v>53500</v>
       </c>
       <c r="F60" s="3">
-        <v>56800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>76600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>54100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2508,22 +2647,25 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>156100</v>
+        <v>414100</v>
       </c>
       <c r="E61" s="3">
-        <v>129600</v>
+        <v>148500</v>
       </c>
       <c r="F61" s="3">
-        <v>120200</v>
+        <v>123300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>114300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2546,22 +2688,25 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21800</v>
+        <v>10200</v>
       </c>
       <c r="E62" s="3">
-        <v>26400</v>
+        <v>20700</v>
       </c>
       <c r="F62" s="3">
-        <v>126400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>120300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2584,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,22 +2852,25 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>234000</v>
+        <v>499100</v>
       </c>
       <c r="E66" s="3">
-        <v>236500</v>
+        <v>222700</v>
       </c>
       <c r="F66" s="3">
-        <v>303500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>225000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>288700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2736,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,22 +3074,25 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4510600</v>
+        <v>-4331800</v>
       </c>
       <c r="E72" s="3">
-        <v>-4497200</v>
+        <v>-4291400</v>
       </c>
       <c r="F72" s="3">
-        <v>-4514400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-4278700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-4295100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2942,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,22 +3238,25 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>899200</v>
+        <v>1124100</v>
       </c>
       <c r="E76" s="3">
-        <v>845900</v>
+        <v>855500</v>
       </c>
       <c r="F76" s="3">
-        <v>765800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>804800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>728500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3366,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-28800</v>
+        <v>-55100</v>
       </c>
       <c r="E81" s="3">
-        <v>-42200</v>
+        <v>-27400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1075000</v>
+        <v>-40100</v>
       </c>
       <c r="G81" s="3">
-        <v>-36800</v>
+        <v>-1022800</v>
       </c>
       <c r="H81" s="3">
-        <v>-24400</v>
+        <v>-35000</v>
       </c>
       <c r="I81" s="3">
-        <v>-12500</v>
+        <v>-23200</v>
       </c>
       <c r="J81" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-17100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,35 +3426,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5300</v>
+        <v>6900</v>
       </c>
       <c r="E83" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="G83" s="3">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="I83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3267,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3670,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-53800</v>
+        <v>-86100</v>
       </c>
       <c r="E89" s="3">
-        <v>-59900</v>
+        <v>-51200</v>
       </c>
       <c r="F89" s="3">
-        <v>-47300</v>
+        <v>-57000</v>
       </c>
       <c r="G89" s="3">
-        <v>-40000</v>
+        <v>-45000</v>
       </c>
       <c r="H89" s="3">
-        <v>-8000</v>
+        <v>-38000</v>
       </c>
       <c r="I89" s="3">
-        <v>-4400</v>
+        <v>-7700</v>
       </c>
       <c r="J89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-31900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,35 +3730,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11500</v>
+        <v>-37900</v>
       </c>
       <c r="E91" s="3">
-        <v>-14700</v>
+        <v>-11000</v>
       </c>
       <c r="F91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3851,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-88600</v>
+        <v>-79400</v>
       </c>
       <c r="E94" s="3">
-        <v>-71000</v>
+        <v>-84300</v>
       </c>
       <c r="F94" s="3">
-        <v>-45200</v>
+        <v>-67600</v>
       </c>
       <c r="G94" s="3">
-        <v>-51000</v>
+        <v>-43000</v>
       </c>
       <c r="H94" s="3">
-        <v>-22500</v>
+        <v>-48600</v>
       </c>
       <c r="I94" s="3">
-        <v>-21900</v>
+        <v>-21400</v>
       </c>
       <c r="J94" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,35 +4073,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>62700</v>
+        <v>593500</v>
       </c>
       <c r="E100" s="3">
-        <v>59400</v>
+        <v>59600</v>
       </c>
       <c r="F100" s="3">
-        <v>580400</v>
+        <v>56500</v>
       </c>
       <c r="G100" s="3">
-        <v>161100</v>
+        <v>552200</v>
       </c>
       <c r="H100" s="3">
-        <v>-500</v>
+        <v>153300</v>
       </c>
       <c r="I100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,35 +4114,38 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9500</v>
+        <v>2900</v>
       </c>
       <c r="E101" s="3">
-        <v>-5700</v>
+        <v>9000</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>-5500</v>
       </c>
       <c r="G101" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -3907,35 +4155,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70200</v>
+        <v>430900</v>
       </c>
       <c r="E102" s="3">
-        <v>-77200</v>
+        <v>-66800</v>
       </c>
       <c r="F102" s="3">
-        <v>489600</v>
+        <v>-73500</v>
       </c>
       <c r="G102" s="3">
-        <v>71900</v>
+        <v>465800</v>
       </c>
       <c r="H102" s="3">
-        <v>-31300</v>
+        <v>68400</v>
       </c>
       <c r="I102" s="3">
-        <v>-28500</v>
+        <v>-29800</v>
       </c>
       <c r="J102" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-44300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>27500</v>
+        <v>26400</v>
       </c>
       <c r="E12" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="F12" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="H12" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I12" s="3">
         <v>1400</v>
       </c>
       <c r="J12" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K12" s="3">
         <v>3100</v>
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>1071000</v>
+        <v>1029200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1049,25 +1049,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>68700</v>
+        <v>66100</v>
       </c>
       <c r="E17" s="3">
-        <v>47700</v>
+        <v>45800</v>
       </c>
       <c r="F17" s="3">
-        <v>43200</v>
+        <v>41500</v>
       </c>
       <c r="G17" s="3">
-        <v>1104200</v>
+        <v>1061100</v>
       </c>
       <c r="H17" s="3">
-        <v>49000</v>
+        <v>47100</v>
       </c>
       <c r="I17" s="3">
-        <v>21400</v>
+        <v>20600</v>
       </c>
       <c r="J17" s="3">
-        <v>14800</v>
+        <v>14200</v>
       </c>
       <c r="K17" s="3">
         <v>17600</v>
@@ -1093,22 +1093,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-47700</v>
+        <v>-45800</v>
       </c>
       <c r="F18" s="3">
-        <v>-43200</v>
+        <v>-41500</v>
       </c>
       <c r="G18" s="3">
-        <v>-1104200</v>
+        <v>-1061100</v>
       </c>
       <c r="H18" s="3">
-        <v>-49000</v>
+        <v>-47100</v>
       </c>
       <c r="I18" s="3">
-        <v>-21400</v>
+        <v>-20600</v>
       </c>
       <c r="J18" s="3">
-        <v>-14800</v>
+        <v>-14200</v>
       </c>
       <c r="K18" s="3">
         <v>-17600</v>
@@ -1151,22 +1151,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>21200</v>
+        <v>20300</v>
       </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="G20" s="3">
-        <v>81300</v>
+        <v>78200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
@@ -1192,22 +1192,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-21500</v>
+        <v>-20600</v>
       </c>
       <c r="F21" s="3">
-        <v>-28500</v>
+        <v>-27400</v>
       </c>
       <c r="G21" s="3">
-        <v>-1018500</v>
+        <v>-978700</v>
       </c>
       <c r="H21" s="3">
-        <v>-46700</v>
+        <v>-44900</v>
       </c>
       <c r="I21" s="3">
-        <v>-20000</v>
+        <v>-19300</v>
       </c>
       <c r="J21" s="3">
-        <v>-13400</v>
+        <v>-12900</v>
       </c>
       <c r="K21" s="3">
         <v>-15400</v>
@@ -1271,25 +1271,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-55900</v>
+        <v>-53700</v>
       </c>
       <c r="E23" s="3">
-        <v>-26500</v>
+        <v>-25500</v>
       </c>
       <c r="F23" s="3">
-        <v>-33600</v>
+        <v>-32300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1022800</v>
+        <v>-982900</v>
       </c>
       <c r="H23" s="3">
-        <v>-50100</v>
+        <v>-48100</v>
       </c>
       <c r="I23" s="3">
-        <v>-22700</v>
+        <v>-21800</v>
       </c>
       <c r="J23" s="3">
-        <v>-15000</v>
+        <v>-14400</v>
       </c>
       <c r="K23" s="3">
         <v>-18000</v>
@@ -1315,22 +1315,22 @@
         <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F24" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>-15000</v>
+        <v>-14400</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K24" s="3">
         <v>-900</v>
@@ -1394,25 +1394,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-55100</v>
+        <v>-52900</v>
       </c>
       <c r="E26" s="3">
-        <v>-27400</v>
+        <v>-26300</v>
       </c>
       <c r="F26" s="3">
-        <v>-40100</v>
+        <v>-38600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1022800</v>
+        <v>-982900</v>
       </c>
       <c r="H26" s="3">
-        <v>-35000</v>
+        <v>-33700</v>
       </c>
       <c r="I26" s="3">
-        <v>-23200</v>
+        <v>-22300</v>
       </c>
       <c r="J26" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="K26" s="3">
         <v>-17100</v>
@@ -1435,25 +1435,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-55100</v>
+        <v>-52900</v>
       </c>
       <c r="E27" s="3">
-        <v>-27400</v>
+        <v>-26300</v>
       </c>
       <c r="F27" s="3">
-        <v>-40100</v>
+        <v>-38600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1022800</v>
+        <v>-982900</v>
       </c>
       <c r="H27" s="3">
-        <v>-35000</v>
+        <v>-33700</v>
       </c>
       <c r="I27" s="3">
-        <v>-23200</v>
+        <v>-22300</v>
       </c>
       <c r="J27" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="K27" s="3">
         <v>-17100</v>
@@ -1643,22 +1643,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-21200</v>
+        <v>-20300</v>
       </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="G32" s="3">
-        <v>-81300</v>
+        <v>-78200</v>
       </c>
       <c r="H32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I32" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
@@ -1681,25 +1681,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-55100</v>
+        <v>-52900</v>
       </c>
       <c r="E33" s="3">
-        <v>-27400</v>
+        <v>-26300</v>
       </c>
       <c r="F33" s="3">
-        <v>-40100</v>
+        <v>-38600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1022800</v>
+        <v>-982900</v>
       </c>
       <c r="H33" s="3">
-        <v>-35000</v>
+        <v>-33700</v>
       </c>
       <c r="I33" s="3">
-        <v>-23200</v>
+        <v>-22300</v>
       </c>
       <c r="J33" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="K33" s="3">
         <v>-17100</v>
@@ -1763,25 +1763,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-55100</v>
+        <v>-52900</v>
       </c>
       <c r="E35" s="3">
-        <v>-27400</v>
+        <v>-26300</v>
       </c>
       <c r="F35" s="3">
-        <v>-40100</v>
+        <v>-38600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1022800</v>
+        <v>-982900</v>
       </c>
       <c r="H35" s="3">
-        <v>-35000</v>
+        <v>-33700</v>
       </c>
       <c r="I35" s="3">
-        <v>-23200</v>
+        <v>-22300</v>
       </c>
       <c r="J35" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="K35" s="3">
         <v>-17100</v>
@@ -1884,16 +1884,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>826000</v>
+        <v>793800</v>
       </c>
       <c r="E41" s="3">
-        <v>395100</v>
+        <v>379700</v>
       </c>
       <c r="F41" s="3">
-        <v>461900</v>
+        <v>443900</v>
       </c>
       <c r="G41" s="3">
-        <v>535400</v>
+        <v>514500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>41500</v>
+        <v>39900</v>
       </c>
       <c r="E43" s="3">
-        <v>26600</v>
+        <v>25500</v>
       </c>
       <c r="F43" s="3">
-        <v>59000</v>
+        <v>56700</v>
       </c>
       <c r="G43" s="3">
-        <v>45500</v>
+        <v>43700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2007,16 +2007,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21100</v>
+        <v>20300</v>
       </c>
       <c r="E44" s="3">
-        <v>19100</v>
+        <v>18300</v>
       </c>
       <c r="F44" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="G44" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2048,16 +2048,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44100</v>
+        <v>42400</v>
       </c>
       <c r="E45" s="3">
-        <v>48100</v>
+        <v>46200</v>
       </c>
       <c r="F45" s="3">
-        <v>33800</v>
+        <v>32500</v>
       </c>
       <c r="G45" s="3">
-        <v>25200</v>
+        <v>24200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2089,16 +2089,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>932800</v>
+        <v>896400</v>
       </c>
       <c r="E46" s="3">
-        <v>488900</v>
+        <v>469800</v>
       </c>
       <c r="F46" s="3">
-        <v>568700</v>
+        <v>546500</v>
       </c>
       <c r="G46" s="3">
-        <v>618700</v>
+        <v>594600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2130,16 +2130,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37500</v>
+        <v>36100</v>
       </c>
       <c r="E47" s="3">
-        <v>59200</v>
+        <v>56900</v>
       </c>
       <c r="F47" s="3">
-        <v>30800</v>
+        <v>29600</v>
       </c>
       <c r="G47" s="3">
-        <v>33500</v>
+        <v>32200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2171,16 +2171,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>249100</v>
+        <v>239400</v>
       </c>
       <c r="E48" s="3">
-        <v>197500</v>
+        <v>189800</v>
       </c>
       <c r="F48" s="3">
-        <v>163000</v>
+        <v>156600</v>
       </c>
       <c r="G48" s="3">
-        <v>142500</v>
+        <v>137000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2212,16 +2212,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>380300</v>
+        <v>365500</v>
       </c>
       <c r="E49" s="3">
-        <v>331100</v>
+        <v>318200</v>
       </c>
       <c r="F49" s="3">
-        <v>266000</v>
+        <v>255600</v>
       </c>
       <c r="G49" s="3">
-        <v>221300</v>
+        <v>212700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
+        <v>22500</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
@@ -2417,16 +2417,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1623200</v>
+        <v>1559900</v>
       </c>
       <c r="E54" s="3">
-        <v>1078100</v>
+        <v>1036100</v>
       </c>
       <c r="F54" s="3">
-        <v>1029800</v>
+        <v>989600</v>
       </c>
       <c r="G54" s="3">
-        <v>1017300</v>
+        <v>977600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2492,16 +2492,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61400</v>
+        <v>59000</v>
       </c>
       <c r="E57" s="3">
-        <v>46300</v>
+        <v>44500</v>
       </c>
       <c r="F57" s="3">
-        <v>44400</v>
+        <v>42700</v>
       </c>
       <c r="G57" s="3">
-        <v>50000</v>
+        <v>48000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2533,16 +2533,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="E58" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F58" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="G58" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2580,7 +2580,7 @@
         <v>1000</v>
       </c>
       <c r="F59" s="3">
-        <v>26600</v>
+        <v>25600</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -2615,16 +2615,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74800</v>
+        <v>71900</v>
       </c>
       <c r="E60" s="3">
-        <v>53500</v>
+        <v>51400</v>
       </c>
       <c r="F60" s="3">
-        <v>76600</v>
+        <v>73600</v>
       </c>
       <c r="G60" s="3">
-        <v>54100</v>
+        <v>52000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2656,16 +2656,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>414100</v>
+        <v>398000</v>
       </c>
       <c r="E61" s="3">
-        <v>148500</v>
+        <v>142700</v>
       </c>
       <c r="F61" s="3">
-        <v>123300</v>
+        <v>118500</v>
       </c>
       <c r="G61" s="3">
-        <v>114300</v>
+        <v>109900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2697,16 +2697,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="E62" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="F62" s="3">
-        <v>25100</v>
+        <v>24100</v>
       </c>
       <c r="G62" s="3">
-        <v>120300</v>
+        <v>115600</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2861,16 +2861,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>499100</v>
+        <v>479600</v>
       </c>
       <c r="E66" s="3">
-        <v>222700</v>
+        <v>214000</v>
       </c>
       <c r="F66" s="3">
-        <v>225000</v>
+        <v>216200</v>
       </c>
       <c r="G66" s="3">
-        <v>288700</v>
+        <v>277500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -3083,16 +3083,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4331800</v>
+        <v>-4162800</v>
       </c>
       <c r="E72" s="3">
-        <v>-4291400</v>
+        <v>-4123900</v>
       </c>
       <c r="F72" s="3">
-        <v>-4278700</v>
+        <v>-4111700</v>
       </c>
       <c r="G72" s="3">
-        <v>-4295100</v>
+        <v>-4127500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3247,16 +3247,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1124100</v>
+        <v>1080200</v>
       </c>
       <c r="E76" s="3">
-        <v>855500</v>
+        <v>822100</v>
       </c>
       <c r="F76" s="3">
-        <v>804800</v>
+        <v>773400</v>
       </c>
       <c r="G76" s="3">
-        <v>728500</v>
+        <v>700100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3375,25 +3375,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-55100</v>
+        <v>-52900</v>
       </c>
       <c r="E81" s="3">
-        <v>-27400</v>
+        <v>-26300</v>
       </c>
       <c r="F81" s="3">
-        <v>-40100</v>
+        <v>-38600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1022800</v>
+        <v>-982900</v>
       </c>
       <c r="H81" s="3">
-        <v>-35000</v>
+        <v>-33700</v>
       </c>
       <c r="I81" s="3">
-        <v>-23200</v>
+        <v>-22300</v>
       </c>
       <c r="J81" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="K81" s="3">
         <v>-17100</v>
@@ -3433,25 +3433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="E83" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="G83" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H83" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="I83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K83" s="3">
         <v>2600</v>
@@ -3679,25 +3679,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-86100</v>
+        <v>-82700</v>
       </c>
       <c r="E89" s="3">
-        <v>-51200</v>
+        <v>-49200</v>
       </c>
       <c r="F89" s="3">
-        <v>-57000</v>
+        <v>-54800</v>
       </c>
       <c r="G89" s="3">
-        <v>-45000</v>
+        <v>-43200</v>
       </c>
       <c r="H89" s="3">
-        <v>-38000</v>
+        <v>-36500</v>
       </c>
       <c r="I89" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="J89" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="K89" s="3">
         <v>-31900</v>
@@ -3737,25 +3737,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37900</v>
+        <v>-36400</v>
       </c>
       <c r="E91" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="F91" s="3">
-        <v>-14000</v>
+        <v>-13400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3860,25 +3860,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-79400</v>
+        <v>-76300</v>
       </c>
       <c r="E94" s="3">
-        <v>-84300</v>
+        <v>-81000</v>
       </c>
       <c r="F94" s="3">
-        <v>-67600</v>
+        <v>-64900</v>
       </c>
       <c r="G94" s="3">
-        <v>-43000</v>
+        <v>-41300</v>
       </c>
       <c r="H94" s="3">
-        <v>-48600</v>
+        <v>-46700</v>
       </c>
       <c r="I94" s="3">
-        <v>-21400</v>
+        <v>-20600</v>
       </c>
       <c r="J94" s="3">
-        <v>-20800</v>
+        <v>-20000</v>
       </c>
       <c r="K94" s="3">
         <v>-20900</v>
@@ -4082,25 +4082,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>593500</v>
+        <v>570400</v>
       </c>
       <c r="E100" s="3">
-        <v>59600</v>
+        <v>57300</v>
       </c>
       <c r="F100" s="3">
-        <v>56500</v>
+        <v>54300</v>
       </c>
       <c r="G100" s="3">
-        <v>552200</v>
+        <v>530700</v>
       </c>
       <c r="H100" s="3">
-        <v>153300</v>
+        <v>147300</v>
       </c>
       <c r="I100" s="3">
         <v>-400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K100" s="3">
         <v>8700</v>
@@ -4123,13 +4123,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E101" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="G101" s="3">
         <v>1500</v>
@@ -4141,7 +4141,7 @@
         <v>-300</v>
       </c>
       <c r="J101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -4164,25 +4164,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>430900</v>
+        <v>414100</v>
       </c>
       <c r="E102" s="3">
-        <v>-66800</v>
+        <v>-64200</v>
       </c>
       <c r="F102" s="3">
-        <v>-73500</v>
+        <v>-70600</v>
       </c>
       <c r="G102" s="3">
-        <v>465800</v>
+        <v>447600</v>
       </c>
       <c r="H102" s="3">
-        <v>68400</v>
+        <v>65800</v>
       </c>
       <c r="I102" s="3">
-        <v>-29800</v>
+        <v>-28600</v>
       </c>
       <c r="J102" s="3">
-        <v>-27200</v>
+        <v>-26100</v>
       </c>
       <c r="K102" s="3">
         <v>-44300</v>

--- a/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>26400</v>
+        <v>27100</v>
       </c>
       <c r="E12" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="F12" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G12" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H12" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="I12" s="3">
         <v>1400</v>
       </c>
       <c r="J12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K12" s="3">
         <v>3100</v>
@@ -953,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>1400</v>
       </c>
       <c r="G14" s="3">
-        <v>1029200</v>
+        <v>1053400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1049,25 +1049,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>66100</v>
+        <v>67600</v>
       </c>
       <c r="E17" s="3">
-        <v>45800</v>
+        <v>46900</v>
       </c>
       <c r="F17" s="3">
-        <v>41500</v>
+        <v>42500</v>
       </c>
       <c r="G17" s="3">
-        <v>1061100</v>
+        <v>1086000</v>
       </c>
       <c r="H17" s="3">
-        <v>47100</v>
+        <v>48200</v>
       </c>
       <c r="I17" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="J17" s="3">
-        <v>14200</v>
+        <v>14600</v>
       </c>
       <c r="K17" s="3">
         <v>17600</v>
@@ -1093,22 +1093,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-45800</v>
+        <v>-46900</v>
       </c>
       <c r="F18" s="3">
-        <v>-41500</v>
+        <v>-42500</v>
       </c>
       <c r="G18" s="3">
-        <v>-1061100</v>
+        <v>-1086000</v>
       </c>
       <c r="H18" s="3">
-        <v>-47100</v>
+        <v>-48200</v>
       </c>
       <c r="I18" s="3">
-        <v>-20600</v>
+        <v>-21000</v>
       </c>
       <c r="J18" s="3">
-        <v>-14200</v>
+        <v>-14600</v>
       </c>
       <c r="K18" s="3">
         <v>-17600</v>
@@ -1151,13 +1151,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>20300</v>
+        <v>20800</v>
       </c>
       <c r="F20" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="G20" s="3">
-        <v>78200</v>
+        <v>80000</v>
       </c>
       <c r="H20" s="3">
         <v>-1000</v>
@@ -1166,7 +1166,7 @@
         <v>-1200</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
@@ -1192,22 +1192,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-20600</v>
+        <v>-21100</v>
       </c>
       <c r="F21" s="3">
-        <v>-27400</v>
+        <v>-28000</v>
       </c>
       <c r="G21" s="3">
-        <v>-978700</v>
+        <v>-1001700</v>
       </c>
       <c r="H21" s="3">
-        <v>-44900</v>
+        <v>-45900</v>
       </c>
       <c r="I21" s="3">
-        <v>-19300</v>
+        <v>-19700</v>
       </c>
       <c r="J21" s="3">
-        <v>-12900</v>
+        <v>-13200</v>
       </c>
       <c r="K21" s="3">
         <v>-15400</v>
@@ -1271,25 +1271,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-53700</v>
+        <v>-55000</v>
       </c>
       <c r="E23" s="3">
-        <v>-25500</v>
+        <v>-26100</v>
       </c>
       <c r="F23" s="3">
-        <v>-32300</v>
+        <v>-33000</v>
       </c>
       <c r="G23" s="3">
-        <v>-982900</v>
+        <v>-1006000</v>
       </c>
       <c r="H23" s="3">
-        <v>-48100</v>
+        <v>-49200</v>
       </c>
       <c r="I23" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="J23" s="3">
-        <v>-14400</v>
+        <v>-14700</v>
       </c>
       <c r="K23" s="3">
         <v>-18000</v>
@@ -1318,19 +1318,19 @@
         <v>800</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>-14400</v>
+        <v>-14800</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="K24" s="3">
         <v>-900</v>
@@ -1394,25 +1394,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52900</v>
+        <v>-54200</v>
       </c>
       <c r="E26" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="F26" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="G26" s="3">
-        <v>-982900</v>
+        <v>-1005900</v>
       </c>
       <c r="H26" s="3">
-        <v>-33700</v>
+        <v>-34500</v>
       </c>
       <c r="I26" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="J26" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="K26" s="3">
         <v>-17100</v>
@@ -1435,25 +1435,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-52900</v>
+        <v>-54200</v>
       </c>
       <c r="E27" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="F27" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="G27" s="3">
-        <v>-982900</v>
+        <v>-1005900</v>
       </c>
       <c r="H27" s="3">
-        <v>-33700</v>
+        <v>-34500</v>
       </c>
       <c r="I27" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="J27" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="K27" s="3">
         <v>-17100</v>
@@ -1643,13 +1643,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-20300</v>
+        <v>-20800</v>
       </c>
       <c r="F32" s="3">
-        <v>-9300</v>
+        <v>-9500</v>
       </c>
       <c r="G32" s="3">
-        <v>-78200</v>
+        <v>-80000</v>
       </c>
       <c r="H32" s="3">
         <v>1000</v>
@@ -1658,7 +1658,7 @@
         <v>1200</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
@@ -1681,25 +1681,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-52900</v>
+        <v>-54200</v>
       </c>
       <c r="E33" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="F33" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="G33" s="3">
-        <v>-982900</v>
+        <v>-1005900</v>
       </c>
       <c r="H33" s="3">
-        <v>-33700</v>
+        <v>-34500</v>
       </c>
       <c r="I33" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="J33" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="K33" s="3">
         <v>-17100</v>
@@ -1763,25 +1763,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-52900</v>
+        <v>-54200</v>
       </c>
       <c r="E35" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="F35" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="G35" s="3">
-        <v>-982900</v>
+        <v>-1005900</v>
       </c>
       <c r="H35" s="3">
-        <v>-33700</v>
+        <v>-34500</v>
       </c>
       <c r="I35" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="J35" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="K35" s="3">
         <v>-17100</v>
@@ -1884,16 +1884,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>793800</v>
+        <v>812400</v>
       </c>
       <c r="E41" s="3">
-        <v>379700</v>
+        <v>388600</v>
       </c>
       <c r="F41" s="3">
-        <v>443900</v>
+        <v>454300</v>
       </c>
       <c r="G41" s="3">
-        <v>514500</v>
+        <v>526600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>39900</v>
+        <v>40900</v>
       </c>
       <c r="E43" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="F43" s="3">
-        <v>56700</v>
+        <v>58000</v>
       </c>
       <c r="G43" s="3">
-        <v>43700</v>
+        <v>44700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2007,16 +2007,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="E44" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="F44" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="G44" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2048,16 +2048,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="E45" s="3">
-        <v>46200</v>
+        <v>47300</v>
       </c>
       <c r="F45" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="G45" s="3">
-        <v>24200</v>
+        <v>24800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2089,16 +2089,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>896400</v>
+        <v>917400</v>
       </c>
       <c r="E46" s="3">
-        <v>469800</v>
+        <v>480800</v>
       </c>
       <c r="F46" s="3">
-        <v>546500</v>
+        <v>559300</v>
       </c>
       <c r="G46" s="3">
-        <v>594600</v>
+        <v>608500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -2130,16 +2130,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36100</v>
+        <v>36900</v>
       </c>
       <c r="E47" s="3">
-        <v>56900</v>
+        <v>58200</v>
       </c>
       <c r="F47" s="3">
-        <v>29600</v>
+        <v>30300</v>
       </c>
       <c r="G47" s="3">
-        <v>32200</v>
+        <v>32900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2171,16 +2171,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>239400</v>
+        <v>245000</v>
       </c>
       <c r="E48" s="3">
-        <v>189800</v>
+        <v>194200</v>
       </c>
       <c r="F48" s="3">
-        <v>156600</v>
+        <v>160300</v>
       </c>
       <c r="G48" s="3">
-        <v>137000</v>
+        <v>140200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2212,16 +2212,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>365500</v>
+        <v>374100</v>
       </c>
       <c r="E49" s="3">
-        <v>318200</v>
+        <v>325700</v>
       </c>
       <c r="F49" s="3">
-        <v>255600</v>
+        <v>261600</v>
       </c>
       <c r="G49" s="3">
-        <v>212700</v>
+        <v>217700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2335,7 +2335,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22500</v>
+        <v>23100</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
@@ -2417,16 +2417,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1559900</v>
+        <v>1596400</v>
       </c>
       <c r="E54" s="3">
-        <v>1036100</v>
+        <v>1060400</v>
       </c>
       <c r="F54" s="3">
-        <v>989600</v>
+        <v>1012800</v>
       </c>
       <c r="G54" s="3">
-        <v>977600</v>
+        <v>1000500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2492,16 +2492,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59000</v>
+        <v>60400</v>
       </c>
       <c r="E57" s="3">
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="F57" s="3">
-        <v>42700</v>
+        <v>43700</v>
       </c>
       <c r="G57" s="3">
-        <v>48000</v>
+        <v>49200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2533,16 +2533,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F58" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2580,7 +2580,7 @@
         <v>1000</v>
       </c>
       <c r="F59" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -2615,16 +2615,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>71900</v>
+        <v>73600</v>
       </c>
       <c r="E60" s="3">
-        <v>51400</v>
+        <v>52600</v>
       </c>
       <c r="F60" s="3">
-        <v>73600</v>
+        <v>75300</v>
       </c>
       <c r="G60" s="3">
-        <v>52000</v>
+        <v>53200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2656,16 +2656,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>398000</v>
+        <v>407300</v>
       </c>
       <c r="E61" s="3">
-        <v>142700</v>
+        <v>146000</v>
       </c>
       <c r="F61" s="3">
-        <v>118500</v>
+        <v>121300</v>
       </c>
       <c r="G61" s="3">
-        <v>109900</v>
+        <v>112500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2697,16 +2697,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="E62" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="F62" s="3">
-        <v>24100</v>
+        <v>24700</v>
       </c>
       <c r="G62" s="3">
-        <v>115600</v>
+        <v>118300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2861,16 +2861,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>479600</v>
+        <v>490900</v>
       </c>
       <c r="E66" s="3">
-        <v>214000</v>
+        <v>219000</v>
       </c>
       <c r="F66" s="3">
-        <v>216200</v>
+        <v>221300</v>
       </c>
       <c r="G66" s="3">
-        <v>277500</v>
+        <v>284000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -3083,16 +3083,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4162800</v>
+        <v>-4260400</v>
       </c>
       <c r="E72" s="3">
-        <v>-4123900</v>
+        <v>-4220700</v>
       </c>
       <c r="F72" s="3">
-        <v>-4111700</v>
+        <v>-4208200</v>
       </c>
       <c r="G72" s="3">
-        <v>-4127500</v>
+        <v>-4224300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3247,16 +3247,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1080200</v>
+        <v>1105500</v>
       </c>
       <c r="E76" s="3">
-        <v>822100</v>
+        <v>841400</v>
       </c>
       <c r="F76" s="3">
-        <v>773400</v>
+        <v>791500</v>
       </c>
       <c r="G76" s="3">
-        <v>700100</v>
+        <v>716500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -3375,25 +3375,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-52900</v>
+        <v>-54200</v>
       </c>
       <c r="E81" s="3">
-        <v>-26300</v>
+        <v>-26900</v>
       </c>
       <c r="F81" s="3">
-        <v>-38600</v>
+        <v>-39500</v>
       </c>
       <c r="G81" s="3">
-        <v>-982900</v>
+        <v>-1005900</v>
       </c>
       <c r="H81" s="3">
-        <v>-33700</v>
+        <v>-34500</v>
       </c>
       <c r="I81" s="3">
-        <v>-22300</v>
+        <v>-22800</v>
       </c>
       <c r="J81" s="3">
-        <v>-11400</v>
+        <v>-11700</v>
       </c>
       <c r="K81" s="3">
         <v>-17100</v>
@@ -3433,22 +3433,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E83" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J83" s="3">
         <v>1500</v>
@@ -3679,25 +3679,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-82700</v>
+        <v>-84700</v>
       </c>
       <c r="E89" s="3">
-        <v>-49200</v>
+        <v>-50300</v>
       </c>
       <c r="F89" s="3">
-        <v>-54800</v>
+        <v>-56100</v>
       </c>
       <c r="G89" s="3">
-        <v>-43200</v>
+        <v>-44200</v>
       </c>
       <c r="H89" s="3">
-        <v>-36500</v>
+        <v>-37400</v>
       </c>
       <c r="I89" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="J89" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K89" s="3">
         <v>-31900</v>
@@ -3737,25 +3737,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36400</v>
+        <v>-37300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="F91" s="3">
-        <v>-13400</v>
+        <v>-13800</v>
       </c>
       <c r="G91" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J91" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
@@ -3860,25 +3860,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76300</v>
+        <v>-78100</v>
       </c>
       <c r="E94" s="3">
-        <v>-81000</v>
+        <v>-82900</v>
       </c>
       <c r="F94" s="3">
-        <v>-64900</v>
+        <v>-66400</v>
       </c>
       <c r="G94" s="3">
-        <v>-41300</v>
+        <v>-42300</v>
       </c>
       <c r="H94" s="3">
-        <v>-46700</v>
+        <v>-47800</v>
       </c>
       <c r="I94" s="3">
-        <v>-20600</v>
+        <v>-21100</v>
       </c>
       <c r="J94" s="3">
-        <v>-20000</v>
+        <v>-20500</v>
       </c>
       <c r="K94" s="3">
         <v>-20900</v>
@@ -4082,19 +4082,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>570400</v>
+        <v>583800</v>
       </c>
       <c r="E100" s="3">
-        <v>57300</v>
+        <v>58700</v>
       </c>
       <c r="F100" s="3">
-        <v>54300</v>
+        <v>55600</v>
       </c>
       <c r="G100" s="3">
-        <v>530700</v>
+        <v>543100</v>
       </c>
       <c r="H100" s="3">
-        <v>147300</v>
+        <v>150700</v>
       </c>
       <c r="I100" s="3">
         <v>-400</v>
@@ -4123,13 +4123,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="G101" s="3">
         <v>1500</v>
@@ -4141,7 +4141,7 @@
         <v>-300</v>
       </c>
       <c r="J101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
@@ -4164,25 +4164,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>414100</v>
+        <v>423800</v>
       </c>
       <c r="E102" s="3">
-        <v>-64200</v>
+        <v>-65700</v>
       </c>
       <c r="F102" s="3">
-        <v>-70600</v>
+        <v>-72300</v>
       </c>
       <c r="G102" s="3">
-        <v>447600</v>
+        <v>458100</v>
       </c>
       <c r="H102" s="3">
-        <v>65800</v>
+        <v>67300</v>
       </c>
       <c r="I102" s="3">
-        <v>-28600</v>
+        <v>-29300</v>
       </c>
       <c r="J102" s="3">
-        <v>-26100</v>
+        <v>-26700</v>
       </c>
       <c r="K102" s="3">
         <v>-44300</v>

--- a/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>ARVL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +878,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>27100</v>
+        <v>63800</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>28000</v>
       </c>
       <c r="F12" s="3">
-        <v>6200</v>
+        <v>9100</v>
       </c>
       <c r="G12" s="3">
-        <v>7200</v>
+        <v>6400</v>
       </c>
       <c r="H12" s="3">
-        <v>9900</v>
+        <v>7500</v>
       </c>
       <c r="I12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,35 +964,38 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5800</v>
+        <v>25500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F14" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1053400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1091800</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>67600</v>
+        <v>231200</v>
       </c>
       <c r="E17" s="3">
-        <v>46900</v>
+        <v>70100</v>
       </c>
       <c r="F17" s="3">
-        <v>42500</v>
+        <v>48600</v>
       </c>
       <c r="G17" s="3">
-        <v>1086000</v>
+        <v>44000</v>
       </c>
       <c r="H17" s="3">
-        <v>48200</v>
+        <v>1125500</v>
       </c>
       <c r="I17" s="3">
-        <v>21000</v>
+        <v>49900</v>
       </c>
       <c r="J17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K17" s="3">
         <v>14600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1111,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,29 +1123,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-46900</v>
+        <v>-70100</v>
       </c>
       <c r="F18" s="3">
-        <v>-42500</v>
+        <v>-48600</v>
       </c>
       <c r="G18" s="3">
-        <v>-1086000</v>
+        <v>-44000</v>
       </c>
       <c r="H18" s="3">
-        <v>-48200</v>
+        <v>-1125500</v>
       </c>
       <c r="I18" s="3">
-        <v>-21000</v>
+        <v>-49900</v>
       </c>
       <c r="J18" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,29 +1185,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>20800</v>
+        <v>13100</v>
       </c>
       <c r="F20" s="3">
-        <v>9500</v>
+        <v>21600</v>
       </c>
       <c r="G20" s="3">
-        <v>80000</v>
+        <v>9800</v>
       </c>
       <c r="H20" s="3">
-        <v>-1000</v>
+        <v>82900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,8 +1217,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,29 +1229,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-21100</v>
+        <v>-50000</v>
       </c>
       <c r="F21" s="3">
-        <v>-28000</v>
+        <v>-21900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1001700</v>
+        <v>-29000</v>
       </c>
       <c r="H21" s="3">
-        <v>-45900</v>
+        <v>-1038200</v>
       </c>
       <c r="I21" s="3">
-        <v>-19700</v>
+        <v>-47600</v>
       </c>
       <c r="J21" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,31 +1261,34 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>6700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1265,38 +1305,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-55000</v>
+        <v>-101400</v>
       </c>
       <c r="E23" s="3">
-        <v>-26100</v>
+        <v>-57000</v>
       </c>
       <c r="F23" s="3">
-        <v>-33000</v>
+        <v>-27100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1006000</v>
+        <v>-34200</v>
       </c>
       <c r="H23" s="3">
-        <v>-49200</v>
+        <v>-1042600</v>
       </c>
       <c r="I23" s="3">
-        <v>-22300</v>
+        <v>-51000</v>
       </c>
       <c r="J23" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,38 +1349,41 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>800</v>
-      </c>
       <c r="F24" s="3">
-        <v>6400</v>
+        <v>900</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="H24" s="3">
-        <v>-14800</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-54200</v>
+        <v>-105700</v>
       </c>
       <c r="E26" s="3">
-        <v>-26900</v>
+        <v>-56200</v>
       </c>
       <c r="F26" s="3">
-        <v>-39500</v>
+        <v>-27900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1005900</v>
+        <v>-40900</v>
       </c>
       <c r="H26" s="3">
-        <v>-34500</v>
+        <v>-1042600</v>
       </c>
       <c r="I26" s="3">
-        <v>-22800</v>
+        <v>-35700</v>
       </c>
       <c r="J26" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54200</v>
+        <v>-105700</v>
       </c>
       <c r="E27" s="3">
-        <v>-26900</v>
+        <v>-56200</v>
       </c>
       <c r="F27" s="3">
-        <v>-39500</v>
+        <v>-27900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1005900</v>
+        <v>-40900</v>
       </c>
       <c r="H27" s="3">
-        <v>-34500</v>
+        <v>-1042600</v>
       </c>
       <c r="I27" s="3">
-        <v>-22800</v>
+        <v>-35700</v>
       </c>
       <c r="J27" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,29 +1713,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-20800</v>
+        <v>-13100</v>
       </c>
       <c r="F32" s="3">
-        <v>-9500</v>
+        <v>-21600</v>
       </c>
       <c r="G32" s="3">
-        <v>-80000</v>
+        <v>-9800</v>
       </c>
       <c r="H32" s="3">
-        <v>1000</v>
+        <v>-82900</v>
       </c>
       <c r="I32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54200</v>
+        <v>-105700</v>
       </c>
       <c r="E33" s="3">
-        <v>-26900</v>
+        <v>-56200</v>
       </c>
       <c r="F33" s="3">
-        <v>-39500</v>
+        <v>-27900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1005900</v>
+        <v>-40900</v>
       </c>
       <c r="H33" s="3">
-        <v>-34500</v>
+        <v>-1042600</v>
       </c>
       <c r="I33" s="3">
-        <v>-22800</v>
+        <v>-35700</v>
       </c>
       <c r="J33" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54200</v>
+        <v>-105700</v>
       </c>
       <c r="E35" s="3">
-        <v>-26900</v>
+        <v>-56200</v>
       </c>
       <c r="F35" s="3">
-        <v>-39500</v>
+        <v>-27900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1005900</v>
+        <v>-40900</v>
       </c>
       <c r="H35" s="3">
-        <v>-34500</v>
+        <v>-1042600</v>
       </c>
       <c r="I35" s="3">
-        <v>-22800</v>
+        <v>-35700</v>
       </c>
       <c r="J35" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,25 +1964,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>812400</v>
+        <v>542300</v>
       </c>
       <c r="E41" s="3">
-        <v>388600</v>
+        <v>842000</v>
       </c>
       <c r="F41" s="3">
-        <v>454300</v>
+        <v>402800</v>
       </c>
       <c r="G41" s="3">
-        <v>526600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>470900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>545800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,25 +2050,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>40900</v>
+        <v>65000</v>
       </c>
       <c r="E43" s="3">
-        <v>26100</v>
+        <v>42300</v>
       </c>
       <c r="F43" s="3">
-        <v>58000</v>
+        <v>27100</v>
       </c>
       <c r="G43" s="3">
-        <v>44700</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>60100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>46400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1989,8 +2082,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2001,25 +2094,28 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20700</v>
+        <v>32500</v>
       </c>
       <c r="E44" s="3">
-        <v>18800</v>
+        <v>21500</v>
       </c>
       <c r="F44" s="3">
-        <v>13700</v>
+        <v>19400</v>
       </c>
       <c r="G44" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>12900</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2030,8 +2126,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2042,25 +2138,28 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43400</v>
+        <v>55100</v>
       </c>
       <c r="E45" s="3">
-        <v>47300</v>
+        <v>45000</v>
       </c>
       <c r="F45" s="3">
-        <v>33300</v>
+        <v>49100</v>
       </c>
       <c r="G45" s="3">
-        <v>24800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>34500</v>
+      </c>
+      <c r="H45" s="3">
+        <v>25700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -2083,25 +2182,28 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>917400</v>
+        <v>695000</v>
       </c>
       <c r="E46" s="3">
-        <v>480800</v>
+        <v>950800</v>
       </c>
       <c r="F46" s="3">
-        <v>559300</v>
+        <v>498400</v>
       </c>
       <c r="G46" s="3">
-        <v>608500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>579700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>630700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2124,25 +2226,28 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="E47" s="3">
-        <v>58200</v>
+        <v>38300</v>
       </c>
       <c r="F47" s="3">
-        <v>30300</v>
+        <v>60300</v>
       </c>
       <c r="G47" s="3">
-        <v>32900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>31400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>34100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2165,25 +2270,28 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>245000</v>
+        <v>331000</v>
       </c>
       <c r="E48" s="3">
-        <v>194200</v>
+        <v>253900</v>
       </c>
       <c r="F48" s="3">
-        <v>160300</v>
+        <v>201300</v>
       </c>
       <c r="G48" s="3">
-        <v>140200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>166100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>145300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2302,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2206,25 +2314,28 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>374100</v>
+        <v>501400</v>
       </c>
       <c r="E49" s="3">
-        <v>325700</v>
+        <v>387700</v>
       </c>
       <c r="F49" s="3">
-        <v>261600</v>
+        <v>337600</v>
       </c>
       <c r="G49" s="3">
-        <v>217700</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>271100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>225600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2235,8 +2346,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,26 +2446,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23100</v>
+        <v>27100</v>
       </c>
       <c r="E52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2478,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,25 +2534,28 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1596400</v>
+        <v>1590100</v>
       </c>
       <c r="E54" s="3">
-        <v>1060400</v>
+        <v>1654600</v>
       </c>
       <c r="F54" s="3">
-        <v>1012800</v>
+        <v>1099000</v>
       </c>
       <c r="G54" s="3">
-        <v>1000500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>1049700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1037000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,25 +2616,26 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60400</v>
+        <v>52100</v>
       </c>
       <c r="E57" s="3">
-        <v>45500</v>
+        <v>62600</v>
       </c>
       <c r="F57" s="3">
-        <v>43700</v>
+        <v>47200</v>
       </c>
       <c r="G57" s="3">
-        <v>49200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>45300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>51000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2527,25 +2658,28 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11800</v>
+        <v>17200</v>
       </c>
       <c r="E58" s="3">
-        <v>6100</v>
+        <v>12200</v>
       </c>
       <c r="F58" s="3">
-        <v>5500</v>
+        <v>6300</v>
       </c>
       <c r="G58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2556,8 +2690,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2568,26 +2702,29 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
-        <v>26200</v>
-      </c>
       <c r="G59" s="3">
+        <v>27100</v>
+      </c>
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,25 +2746,28 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73600</v>
+        <v>92200</v>
       </c>
       <c r="E60" s="3">
-        <v>52600</v>
+        <v>76300</v>
       </c>
       <c r="F60" s="3">
-        <v>75300</v>
+        <v>54500</v>
       </c>
       <c r="G60" s="3">
-        <v>53200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>78000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>55100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2650,25 +2790,28 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>407300</v>
+        <v>193300</v>
       </c>
       <c r="E61" s="3">
-        <v>146000</v>
+        <v>422200</v>
       </c>
       <c r="F61" s="3">
-        <v>121300</v>
+        <v>151300</v>
       </c>
       <c r="G61" s="3">
-        <v>112500</v>
+        <v>125700</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>116600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2691,25 +2834,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10000</v>
+        <v>200200</v>
       </c>
       <c r="E62" s="3">
-        <v>20400</v>
+        <v>10400</v>
       </c>
       <c r="F62" s="3">
-        <v>24700</v>
+        <v>21100</v>
       </c>
       <c r="G62" s="3">
-        <v>118300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>25600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>122600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,25 +3010,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>490900</v>
+        <v>485800</v>
       </c>
       <c r="E66" s="3">
-        <v>219000</v>
+        <v>508800</v>
       </c>
       <c r="F66" s="3">
-        <v>221300</v>
+        <v>227000</v>
       </c>
       <c r="G66" s="3">
-        <v>284000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>229400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>294300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,25 +3248,28 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4260400</v>
+        <v>-5153400</v>
       </c>
       <c r="E72" s="3">
-        <v>-4220700</v>
+        <v>-4415700</v>
       </c>
       <c r="F72" s="3">
-        <v>-4208200</v>
+        <v>-4374500</v>
       </c>
       <c r="G72" s="3">
-        <v>-4224300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-4361600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-4378200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,25 +3424,28 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1105500</v>
+        <v>1104300</v>
       </c>
       <c r="E76" s="3">
-        <v>841400</v>
+        <v>1145800</v>
       </c>
       <c r="F76" s="3">
-        <v>791500</v>
+        <v>872000</v>
       </c>
       <c r="G76" s="3">
-        <v>716500</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>820400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>742700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54200</v>
+        <v>-105700</v>
       </c>
       <c r="E81" s="3">
-        <v>-26900</v>
+        <v>-56200</v>
       </c>
       <c r="F81" s="3">
-        <v>-39500</v>
+        <v>-27900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1005900</v>
+        <v>-40900</v>
       </c>
       <c r="H81" s="3">
-        <v>-34500</v>
+        <v>-1042600</v>
       </c>
       <c r="I81" s="3">
-        <v>-22800</v>
+        <v>-35700</v>
       </c>
       <c r="J81" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,38 +3625,39 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6700</v>
+        <v>19600</v>
       </c>
       <c r="E83" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F83" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G83" s="3">
-        <v>4300</v>
+        <v>5200</v>
       </c>
       <c r="H83" s="3">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="I83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-84700</v>
+        <v>-183400</v>
       </c>
       <c r="E89" s="3">
-        <v>-50300</v>
+        <v>-87800</v>
       </c>
       <c r="F89" s="3">
-        <v>-56100</v>
+        <v>-52200</v>
       </c>
       <c r="G89" s="3">
-        <v>-44200</v>
+        <v>-58100</v>
       </c>
       <c r="H89" s="3">
-        <v>-37400</v>
+        <v>-45800</v>
       </c>
       <c r="I89" s="3">
-        <v>-7500</v>
+        <v>-38700</v>
       </c>
       <c r="J89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-31900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,38 +3951,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37300</v>
+        <v>-46600</v>
       </c>
       <c r="E91" s="3">
-        <v>-10800</v>
+        <v>-38700</v>
       </c>
       <c r="F91" s="3">
-        <v>-13800</v>
+        <v>-11200</v>
       </c>
       <c r="G91" s="3">
-        <v>-5000</v>
+        <v>-14300</v>
       </c>
       <c r="H91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78100</v>
+        <v>-205600</v>
       </c>
       <c r="E94" s="3">
-        <v>-82900</v>
+        <v>-80900</v>
       </c>
       <c r="F94" s="3">
-        <v>-66400</v>
+        <v>-85900</v>
       </c>
       <c r="G94" s="3">
-        <v>-42300</v>
+        <v>-68900</v>
       </c>
       <c r="H94" s="3">
-        <v>-47800</v>
+        <v>-43900</v>
       </c>
       <c r="I94" s="3">
-        <v>-21100</v>
+        <v>-49500</v>
       </c>
       <c r="J94" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>583800</v>
+        <v>-17300</v>
       </c>
       <c r="E100" s="3">
-        <v>58700</v>
+        <v>605000</v>
       </c>
       <c r="F100" s="3">
-        <v>55600</v>
+        <v>60800</v>
       </c>
       <c r="G100" s="3">
-        <v>543100</v>
+        <v>57600</v>
       </c>
       <c r="H100" s="3">
-        <v>150700</v>
+        <v>562900</v>
       </c>
       <c r="I100" s="3">
+        <v>156200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,38 +4363,41 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2800</v>
+        <v>-4200</v>
       </c>
       <c r="E101" s="3">
-        <v>8900</v>
+        <v>2900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5400</v>
+        <v>9200</v>
       </c>
       <c r="G101" s="3">
-        <v>1500</v>
+        <v>-5600</v>
       </c>
       <c r="H101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4158,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>423800</v>
+        <v>-410500</v>
       </c>
       <c r="E102" s="3">
-        <v>-65700</v>
+        <v>439200</v>
       </c>
       <c r="F102" s="3">
-        <v>-72300</v>
+        <v>-68100</v>
       </c>
       <c r="G102" s="3">
-        <v>458100</v>
+        <v>-74900</v>
       </c>
       <c r="H102" s="3">
-        <v>67300</v>
+        <v>474800</v>
       </c>
       <c r="I102" s="3">
-        <v>-29300</v>
+        <v>69700</v>
       </c>
       <c r="J102" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-26700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARVL_QTR_FIN.xlsx
@@ -885,25 +885,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>63800</v>
+        <v>64900</v>
       </c>
       <c r="E12" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="G12" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H12" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I12" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="J12" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K12" s="3">
         <v>4200</v>
@@ -973,10 +973,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>1500</v>
       </c>
       <c r="H14" s="3">
-        <v>1091800</v>
+        <v>1111300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1076,25 +1076,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>231200</v>
+        <v>235300</v>
       </c>
       <c r="E17" s="3">
-        <v>70100</v>
+        <v>71300</v>
       </c>
       <c r="F17" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="G17" s="3">
-        <v>44000</v>
+        <v>44800</v>
       </c>
       <c r="H17" s="3">
-        <v>1125500</v>
+        <v>1145600</v>
       </c>
       <c r="I17" s="3">
-        <v>49900</v>
+        <v>50800</v>
       </c>
       <c r="J17" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="K17" s="3">
         <v>14600</v>
@@ -1123,22 +1123,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-70100</v>
+        <v>-71300</v>
       </c>
       <c r="F18" s="3">
-        <v>-48600</v>
+        <v>-49500</v>
       </c>
       <c r="G18" s="3">
-        <v>-44000</v>
+        <v>-44800</v>
       </c>
       <c r="H18" s="3">
-        <v>-1125500</v>
+        <v>-1145600</v>
       </c>
       <c r="I18" s="3">
-        <v>-49900</v>
+        <v>-50800</v>
       </c>
       <c r="J18" s="3">
-        <v>-21800</v>
+        <v>-22200</v>
       </c>
       <c r="K18" s="3">
         <v>-14600</v>
@@ -1185,16 +1185,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="F20" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="G20" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="H20" s="3">
-        <v>82900</v>
+        <v>84400</v>
       </c>
       <c r="I20" s="3">
         <v>-1100</v>
@@ -1229,22 +1229,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-50000</v>
+        <v>-50900</v>
       </c>
       <c r="F21" s="3">
-        <v>-21900</v>
+        <v>-22300</v>
       </c>
       <c r="G21" s="3">
-        <v>-29000</v>
+        <v>-29600</v>
       </c>
       <c r="H21" s="3">
-        <v>-1038200</v>
+        <v>-1056700</v>
       </c>
       <c r="I21" s="3">
-        <v>-47600</v>
+        <v>-48500</v>
       </c>
       <c r="J21" s="3">
-        <v>-20400</v>
+        <v>-20800</v>
       </c>
       <c r="K21" s="3">
         <v>-13200</v>
@@ -1270,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1314,25 +1314,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-101400</v>
+        <v>-103200</v>
       </c>
       <c r="E23" s="3">
-        <v>-57000</v>
+        <v>-58000</v>
       </c>
       <c r="F23" s="3">
-        <v>-27100</v>
+        <v>-27500</v>
       </c>
       <c r="G23" s="3">
-        <v>-34200</v>
+        <v>-34800</v>
       </c>
       <c r="H23" s="3">
-        <v>-1042600</v>
+        <v>-1061200</v>
       </c>
       <c r="I23" s="3">
-        <v>-51000</v>
+        <v>-51900</v>
       </c>
       <c r="J23" s="3">
-        <v>-23100</v>
+        <v>-23500</v>
       </c>
       <c r="K23" s="3">
         <v>-14700</v>
@@ -1358,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E24" s="3">
         <v>-800</v>
@@ -1367,13 +1367,13 @@
         <v>900</v>
       </c>
       <c r="G24" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>-15300</v>
+        <v>-15600</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
@@ -1446,25 +1446,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-105700</v>
+        <v>-107600</v>
       </c>
       <c r="E26" s="3">
-        <v>-56200</v>
+        <v>-57200</v>
       </c>
       <c r="F26" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="G26" s="3">
-        <v>-40900</v>
+        <v>-41600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1042600</v>
+        <v>-1061200</v>
       </c>
       <c r="I26" s="3">
-        <v>-35700</v>
+        <v>-36400</v>
       </c>
       <c r="J26" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K26" s="3">
         <v>-11700</v>
@@ -1490,25 +1490,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-105700</v>
+        <v>-107600</v>
       </c>
       <c r="E27" s="3">
-        <v>-56200</v>
+        <v>-57200</v>
       </c>
       <c r="F27" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="G27" s="3">
-        <v>-40900</v>
+        <v>-41600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1042600</v>
+        <v>-1061200</v>
       </c>
       <c r="I27" s="3">
-        <v>-35700</v>
+        <v>-36400</v>
       </c>
       <c r="J27" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K27" s="3">
         <v>-11700</v>
@@ -1713,16 +1713,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="F32" s="3">
-        <v>-21600</v>
+        <v>-22000</v>
       </c>
       <c r="G32" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="H32" s="3">
-        <v>-82900</v>
+        <v>-84400</v>
       </c>
       <c r="I32" s="3">
         <v>1100</v>
@@ -1754,25 +1754,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-105700</v>
+        <v>-107600</v>
       </c>
       <c r="E33" s="3">
-        <v>-56200</v>
+        <v>-57200</v>
       </c>
       <c r="F33" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="G33" s="3">
-        <v>-40900</v>
+        <v>-41600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1042600</v>
+        <v>-1061200</v>
       </c>
       <c r="I33" s="3">
-        <v>-35700</v>
+        <v>-36400</v>
       </c>
       <c r="J33" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K33" s="3">
         <v>-11700</v>
@@ -1842,25 +1842,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-105700</v>
+        <v>-107600</v>
       </c>
       <c r="E35" s="3">
-        <v>-56200</v>
+        <v>-57200</v>
       </c>
       <c r="F35" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="G35" s="3">
-        <v>-40900</v>
+        <v>-41600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1042600</v>
+        <v>-1061200</v>
       </c>
       <c r="I35" s="3">
-        <v>-35700</v>
+        <v>-36400</v>
       </c>
       <c r="J35" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K35" s="3">
         <v>-11700</v>
@@ -1971,19 +1971,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>542300</v>
+        <v>552000</v>
       </c>
       <c r="E41" s="3">
-        <v>842000</v>
+        <v>857100</v>
       </c>
       <c r="F41" s="3">
-        <v>402800</v>
+        <v>410000</v>
       </c>
       <c r="G41" s="3">
-        <v>470900</v>
+        <v>479300</v>
       </c>
       <c r="H41" s="3">
-        <v>545800</v>
+        <v>555500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -2059,19 +2059,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65000</v>
+        <v>66200</v>
       </c>
       <c r="E43" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="F43" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="G43" s="3">
-        <v>60100</v>
+        <v>61200</v>
       </c>
       <c r="H43" s="3">
-        <v>46400</v>
+        <v>47200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -2103,19 +2103,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="E44" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="F44" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="G44" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="H44" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2147,19 +2147,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55100</v>
+        <v>56100</v>
       </c>
       <c r="E45" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="F45" s="3">
-        <v>49100</v>
+        <v>49900</v>
       </c>
       <c r="G45" s="3">
-        <v>34500</v>
+        <v>35100</v>
       </c>
       <c r="H45" s="3">
-        <v>25700</v>
+        <v>26200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -2191,19 +2191,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>695000</v>
+        <v>707400</v>
       </c>
       <c r="E46" s="3">
-        <v>950800</v>
+        <v>967800</v>
       </c>
       <c r="F46" s="3">
-        <v>498400</v>
+        <v>507300</v>
       </c>
       <c r="G46" s="3">
-        <v>579700</v>
+        <v>590000</v>
       </c>
       <c r="H46" s="3">
-        <v>630700</v>
+        <v>642000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2235,19 +2235,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35600</v>
+        <v>36200</v>
       </c>
       <c r="E47" s="3">
-        <v>38300</v>
+        <v>38900</v>
       </c>
       <c r="F47" s="3">
-        <v>60300</v>
+        <v>61400</v>
       </c>
       <c r="G47" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="H47" s="3">
-        <v>34100</v>
+        <v>34700</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2279,19 +2279,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>331000</v>
+        <v>336900</v>
       </c>
       <c r="E48" s="3">
-        <v>253900</v>
+        <v>258500</v>
       </c>
       <c r="F48" s="3">
-        <v>201300</v>
+        <v>204900</v>
       </c>
       <c r="G48" s="3">
-        <v>166100</v>
+        <v>169100</v>
       </c>
       <c r="H48" s="3">
-        <v>145300</v>
+        <v>147900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2323,19 +2323,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>501400</v>
+        <v>510400</v>
       </c>
       <c r="E49" s="3">
-        <v>387700</v>
+        <v>394600</v>
       </c>
       <c r="F49" s="3">
-        <v>337600</v>
+        <v>343600</v>
       </c>
       <c r="G49" s="3">
-        <v>271100</v>
+        <v>276000</v>
       </c>
       <c r="H49" s="3">
-        <v>225600</v>
+        <v>229600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2455,10 +2455,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="E52" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="F52" s="3">
         <v>1500</v>
@@ -2467,7 +2467,7 @@
         <v>1400</v>
       </c>
       <c r="H52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2543,19 +2543,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1590100</v>
+        <v>1618500</v>
       </c>
       <c r="E54" s="3">
-        <v>1654600</v>
+        <v>1684200</v>
       </c>
       <c r="F54" s="3">
-        <v>1099000</v>
+        <v>1118600</v>
       </c>
       <c r="G54" s="3">
-        <v>1049700</v>
+        <v>1068500</v>
       </c>
       <c r="H54" s="3">
-        <v>1037000</v>
+        <v>1055500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2623,19 +2623,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>52100</v>
+        <v>53000</v>
       </c>
       <c r="E57" s="3">
-        <v>62600</v>
+        <v>63700</v>
       </c>
       <c r="F57" s="3">
-        <v>47200</v>
+        <v>48000</v>
       </c>
       <c r="G57" s="3">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="H57" s="3">
-        <v>51000</v>
+        <v>51900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2667,16 +2667,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="E58" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="F58" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G58" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H58" s="3">
         <v>3800</v>
@@ -2711,16 +2711,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="E59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G59" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -2755,19 +2755,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92200</v>
+        <v>93900</v>
       </c>
       <c r="E60" s="3">
-        <v>76300</v>
+        <v>77600</v>
       </c>
       <c r="F60" s="3">
-        <v>54500</v>
+        <v>55500</v>
       </c>
       <c r="G60" s="3">
-        <v>78000</v>
+        <v>79400</v>
       </c>
       <c r="H60" s="3">
-        <v>55100</v>
+        <v>56100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2799,19 +2799,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>193300</v>
+        <v>196800</v>
       </c>
       <c r="E61" s="3">
-        <v>422200</v>
+        <v>429700</v>
       </c>
       <c r="F61" s="3">
-        <v>151300</v>
+        <v>154000</v>
       </c>
       <c r="G61" s="3">
-        <v>125700</v>
+        <v>128000</v>
       </c>
       <c r="H61" s="3">
-        <v>116600</v>
+        <v>118600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200200</v>
+        <v>203800</v>
       </c>
       <c r="E62" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="F62" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="G62" s="3">
-        <v>25600</v>
+        <v>26000</v>
       </c>
       <c r="H62" s="3">
-        <v>122600</v>
+        <v>124800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -3019,19 +3019,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>485800</v>
+        <v>494400</v>
       </c>
       <c r="E66" s="3">
-        <v>508800</v>
+        <v>517900</v>
       </c>
       <c r="F66" s="3">
-        <v>227000</v>
+        <v>231000</v>
       </c>
       <c r="G66" s="3">
-        <v>229400</v>
+        <v>233500</v>
       </c>
       <c r="H66" s="3">
-        <v>294300</v>
+        <v>299600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -3257,19 +3257,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5153400</v>
+        <v>-5245500</v>
       </c>
       <c r="E72" s="3">
-        <v>-4415700</v>
+        <v>-4494600</v>
       </c>
       <c r="F72" s="3">
-        <v>-4374500</v>
+        <v>-4452700</v>
       </c>
       <c r="G72" s="3">
-        <v>-4361600</v>
+        <v>-4439500</v>
       </c>
       <c r="H72" s="3">
-        <v>-4378200</v>
+        <v>-4456500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3433,19 +3433,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1104300</v>
+        <v>1124100</v>
       </c>
       <c r="E76" s="3">
-        <v>1145800</v>
+        <v>1166300</v>
       </c>
       <c r="F76" s="3">
-        <v>872000</v>
+        <v>887600</v>
       </c>
       <c r="G76" s="3">
-        <v>820400</v>
+        <v>835000</v>
       </c>
       <c r="H76" s="3">
-        <v>742700</v>
+        <v>755900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3570,25 +3570,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-105700</v>
+        <v>-107600</v>
       </c>
       <c r="E81" s="3">
-        <v>-56200</v>
+        <v>-57200</v>
       </c>
       <c r="F81" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="G81" s="3">
-        <v>-40900</v>
+        <v>-41600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1042600</v>
+        <v>-1061200</v>
       </c>
       <c r="I81" s="3">
-        <v>-35700</v>
+        <v>-36400</v>
       </c>
       <c r="J81" s="3">
-        <v>-23600</v>
+        <v>-24000</v>
       </c>
       <c r="K81" s="3">
         <v>-11700</v>
@@ -3632,22 +3632,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19600</v>
+        <v>19900</v>
       </c>
       <c r="E83" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="F83" s="3">
         <v>5200</v>
       </c>
       <c r="G83" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="H83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J83" s="3">
         <v>2700</v>
@@ -3896,25 +3896,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-183400</v>
+        <v>-186700</v>
       </c>
       <c r="E89" s="3">
-        <v>-87800</v>
+        <v>-89300</v>
       </c>
       <c r="F89" s="3">
-        <v>-52200</v>
+        <v>-53100</v>
       </c>
       <c r="G89" s="3">
-        <v>-58100</v>
+        <v>-59200</v>
       </c>
       <c r="H89" s="3">
-        <v>-45800</v>
+        <v>-46700</v>
       </c>
       <c r="I89" s="3">
-        <v>-38700</v>
+        <v>-39400</v>
       </c>
       <c r="J89" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="K89" s="3">
         <v>-4200</v>
@@ -3958,25 +3958,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46600</v>
+        <v>-153100</v>
       </c>
       <c r="E91" s="3">
-        <v>-38700</v>
+        <v>-92100</v>
       </c>
       <c r="F91" s="3">
-        <v>-11200</v>
+        <v>-60000</v>
       </c>
       <c r="G91" s="3">
-        <v>-14300</v>
+        <v>-58900</v>
       </c>
       <c r="H91" s="3">
-        <v>-5200</v>
+        <v>-35200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2100</v>
+        <v>-31300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1400</v>
+        <v>-21300</v>
       </c>
       <c r="K91" s="3">
         <v>-5300</v>
@@ -4090,25 +4090,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-205600</v>
+        <v>-209200</v>
       </c>
       <c r="E94" s="3">
-        <v>-80900</v>
+        <v>-82400</v>
       </c>
       <c r="F94" s="3">
-        <v>-85900</v>
+        <v>-87400</v>
       </c>
       <c r="G94" s="3">
-        <v>-68900</v>
+        <v>-70100</v>
       </c>
       <c r="H94" s="3">
-        <v>-43900</v>
+        <v>-44600</v>
       </c>
       <c r="I94" s="3">
-        <v>-49500</v>
+        <v>-50400</v>
       </c>
       <c r="J94" s="3">
-        <v>-21900</v>
+        <v>-22200</v>
       </c>
       <c r="K94" s="3">
         <v>-20500</v>
@@ -4328,22 +4328,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17300</v>
+        <v>-17600</v>
       </c>
       <c r="E100" s="3">
-        <v>605000</v>
+        <v>615800</v>
       </c>
       <c r="F100" s="3">
-        <v>60800</v>
+        <v>61900</v>
       </c>
       <c r="G100" s="3">
-        <v>57600</v>
+        <v>58700</v>
       </c>
       <c r="H100" s="3">
-        <v>562900</v>
+        <v>573000</v>
       </c>
       <c r="I100" s="3">
-        <v>156200</v>
+        <v>159000</v>
       </c>
       <c r="J100" s="3">
         <v>-400</v>
@@ -4372,16 +4372,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="E101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G101" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="H101" s="3">
         <v>1600</v>
@@ -4416,25 +4416,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-410500</v>
+        <v>-417800</v>
       </c>
       <c r="E102" s="3">
-        <v>439200</v>
+        <v>447100</v>
       </c>
       <c r="F102" s="3">
-        <v>-68100</v>
+        <v>-69300</v>
       </c>
       <c r="G102" s="3">
-        <v>-74900</v>
+        <v>-76200</v>
       </c>
       <c r="H102" s="3">
-        <v>474800</v>
+        <v>483300</v>
       </c>
       <c r="I102" s="3">
-        <v>69700</v>
+        <v>71000</v>
       </c>
       <c r="J102" s="3">
-        <v>-30400</v>
+        <v>-30900</v>
       </c>
       <c r="K102" s="3">
         <v>-26700</v>
